--- a/Middle_Assignment/Assignment4/TestDesign_LeThiHoa_4.xlsx
+++ b/Middle_Assignment/Assignment4/TestDesign_LeThiHoa_4.xlsx
@@ -433,11 +433,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="39">
@@ -495,13 +495,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -515,6 +508,50 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -522,41 +559,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -571,15 +589,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,6 +619,19 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -600,24 +639,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7EA1D0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,41 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -673,11 +673,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -757,218 +757,218 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF7A884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
         <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1050,15 +1050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1070,47 +1061,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,8 +1083,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,198 +1155,198 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="28" borderId="14">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="27" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="28" fillId="43" borderId="14"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="12" borderId="0"/>
+    <xf numFmtId="178" fontId="30" fillId="26" borderId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="36" fillId="2" borderId="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="36" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="44" borderId="9">
+    <xf numFmtId="178" fontId="37" fillId="43" borderId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="20" borderId="9">
+    <xf numFmtId="178" fontId="26" fillId="44" borderId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1620,8 +1620,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
